--- a/雪球簿记交易对冲参数_v5.xlsx
+++ b/雪球簿记交易对冲参数_v5.xlsx
@@ -941,7 +941,7 @@
       </c>
       <c r="AU1" s="17" t="inlineStr">
         <is>
-          <t>2022-06-30 10:22:08</t>
+          <t>2022-06-30 22:34:41</t>
         </is>
       </c>
       <c r="AW1" s="23" t="inlineStr">
@@ -1042,7 +1042,7 @@
         <v/>
       </c>
       <c r="Y2" s="26" t="n">
-        <v>0.9413370266679396</v>
+        <v>1.075146285170444</v>
       </c>
       <c r="Z2" s="26">
         <f>AN2</f>
@@ -1069,7 +1069,7 @@
         <v/>
       </c>
       <c r="AF2" s="26" t="n">
-        <v>-0.01882722454421508</v>
+        <v>-0.01525600069664533</v>
       </c>
       <c r="AG2" s="43">
         <f>AF2*AB2</f>
@@ -1080,19 +1080,19 @@
         <v/>
       </c>
       <c r="AI2" s="26" t="n">
-        <v>-0.5248735316164612</v>
+        <v>-0.4808111134748237</v>
       </c>
       <c r="AJ2" s="26" t="n">
-        <v>0.1185413806915726</v>
+        <v>0.1008372919291485</v>
       </c>
       <c r="AK2" s="26" t="n">
-        <v>-0.03933691630222308</v>
+        <v>-0.0781403170526988</v>
       </c>
       <c r="AM2" s="26" t="n">
         <v>95.68921725182582</v>
       </c>
       <c r="AN2" s="26" t="n">
-        <v>90.41506411540909</v>
+        <v>85.66842806720335</v>
       </c>
       <c r="AO2" s="44">
         <f>AN2*D2/100</f>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="AU2" s="17" t="inlineStr">
         <is>
-          <t>20066.38</t>
+          <t>19033.38</t>
         </is>
       </c>
       <c r="AV2" s="0" t="n"/>
@@ -1217,7 +1217,7 @@
         <v/>
       </c>
       <c r="Y3" s="26" t="n">
-        <v>0.5064468602464842</v>
+        <v>0.6210117868845118</v>
       </c>
       <c r="Z3" s="26">
         <f>AN3</f>
@@ -1243,7 +1243,7 @@
         <v>-0.009324448274920832</v>
       </c>
       <c r="AF3" s="26" t="n">
-        <v>-0.01812575585479993</v>
+        <v>-0.01888265360527128</v>
       </c>
       <c r="AG3" s="43">
         <f>AF3*AB3</f>
@@ -1254,20 +1254,20 @@
         <v/>
       </c>
       <c r="AI3" s="26" t="n">
-        <v>-0.4741936890013554</v>
+        <v>-0.5126231924995207</v>
       </c>
       <c r="AJ3" s="26" t="n">
-        <v>0.1190666742305653</v>
+        <v>0.1221009224659339</v>
       </c>
       <c r="AK3" s="26" t="n">
-        <v>-0.1321282033349506</v>
+        <v>-0.09348096591396433</v>
       </c>
       <c r="AL3" s="0" t="n"/>
       <c r="AM3" s="26" t="n">
         <v>95.68921725182582</v>
       </c>
       <c r="AN3" s="26" t="n">
-        <v>101.4096995244467</v>
+        <v>98.29067291462816</v>
       </c>
       <c r="AO3" s="44">
         <f>AN3*D3</f>
@@ -1390,7 +1390,7 @@
         <v/>
       </c>
       <c r="Y4" s="26" t="n">
-        <v>0.5416230678640678</v>
+        <v>0.6531464762532884</v>
       </c>
       <c r="Z4" s="26">
         <f>AN4</f>
@@ -1416,7 +1416,7 @@
         <v>-0.007099363599368972</v>
       </c>
       <c r="AF4" s="26" t="n">
-        <v>-0.01751394247329758</v>
+        <v>-0.01798743990588837</v>
       </c>
       <c r="AG4" s="43">
         <f>AF4*AB4</f>
@@ -1427,20 +1427,20 @@
         <v/>
       </c>
       <c r="AI4" s="26" t="n">
-        <v>-0.4908647939083699</v>
+        <v>-0.5207003456841175</v>
       </c>
       <c r="AJ4" s="26" t="n">
-        <v>0.1151584957137758</v>
+        <v>0.1161022668777376</v>
       </c>
       <c r="AK4" s="26" t="n">
-        <v>-0.0960269648740608</v>
+        <v>-0.1229343305259878</v>
       </c>
       <c r="AL4" s="0" t="n"/>
       <c r="AM4" s="26" t="n">
         <v>95.68921725182582</v>
       </c>
       <c r="AN4" s="26" t="n">
-        <v>99.88958980449343</v>
+        <v>96.77940196220206</v>
       </c>
       <c r="AO4" s="44">
         <f>AN4*D4</f>
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="AU4" s="17" t="n">
-        <v>166847.699052</v>
+        <v>130197.699052</v>
       </c>
     </row>
     <row r="5" ht="20.1" customHeight="1" s="37">
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="AU5" s="17" t="n">
-        <v>11.3117</v>
+        <v>13.2117</v>
       </c>
       <c r="AV5" s="0" t="n"/>
     </row>

--- a/雪球簿记交易对冲参数_v5.xlsx
+++ b/雪球簿记交易对冲参数_v5.xlsx
@@ -941,7 +941,7 @@
       </c>
       <c r="AU1" s="17" t="inlineStr">
         <is>
-          <t>2022-06-30 22:34:41</t>
+          <t>2022-07-01 19:42:39</t>
         </is>
       </c>
       <c r="AW1" s="23" t="inlineStr">
@@ -1015,8 +1015,10 @@
           <t>否</t>
         </is>
       </c>
-      <c r="R2" s="4" t="n">
-        <v>44741</v>
+      <c r="R2" s="4" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
       </c>
       <c r="S2" s="4" t="inlineStr">
         <is>
@@ -1035,14 +1037,14 @@
         <v/>
       </c>
       <c r="W2" s="7" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X2" s="7">
         <f>U2/F2*100</f>
         <v/>
       </c>
       <c r="Y2" s="26" t="n">
-        <v>1.075146285170444</v>
+        <v>1.000350326507235</v>
       </c>
       <c r="Z2" s="26">
         <f>AN2</f>
@@ -1069,7 +1071,7 @@
         <v/>
       </c>
       <c r="AF2" s="26" t="n">
-        <v>-0.01525600069664533</v>
+        <v>-0.003938357579564879</v>
       </c>
       <c r="AG2" s="43">
         <f>AF2*AB2</f>
@@ -1080,19 +1082,19 @@
         <v/>
       </c>
       <c r="AI2" s="26" t="n">
-        <v>-0.4808111134748237</v>
+        <v>-0.4884796065628449</v>
       </c>
       <c r="AJ2" s="26" t="n">
-        <v>0.1008372919291485</v>
+        <v>0.104014399810439</v>
       </c>
       <c r="AK2" s="26" t="n">
-        <v>-0.0781403170526988</v>
+        <v>-0.02485402988095443</v>
       </c>
       <c r="AM2" s="26" t="n">
-        <v>95.68921725182582</v>
+        <v>95.68921725182612</v>
       </c>
       <c r="AN2" s="26" t="n">
-        <v>85.66842806720335</v>
+        <v>86.37330136951559</v>
       </c>
       <c r="AO2" s="44">
         <f>AN2*D2/100</f>
@@ -1121,7 +1123,7 @@
       </c>
       <c r="AU2" s="17" t="inlineStr">
         <is>
-          <t>19033.38</t>
+          <t>19148.75</t>
         </is>
       </c>
       <c r="AV2" s="0" t="n"/>
@@ -1191,8 +1193,10 @@
           <t>否</t>
         </is>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>44741</v>
+      <c r="R3" s="4" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
       </c>
       <c r="S3" s="4" t="inlineStr">
         <is>
@@ -1210,14 +1214,14 @@
         <v>49</v>
       </c>
       <c r="W3" s="7" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X3" s="7">
         <f>U3/F3*100</f>
         <v/>
       </c>
       <c r="Y3" s="26" t="n">
-        <v>0.6210117868845118</v>
+        <v>0.5328295038226928</v>
       </c>
       <c r="Z3" s="26">
         <f>AN3</f>
@@ -1243,7 +1247,7 @@
         <v>-0.009324448274920832</v>
       </c>
       <c r="AF3" s="26" t="n">
-        <v>-0.01888265360527128</v>
+        <v>-0.004689459966378857</v>
       </c>
       <c r="AG3" s="43">
         <f>AF3*AB3</f>
@@ -1254,20 +1258,20 @@
         <v/>
       </c>
       <c r="AI3" s="26" t="n">
-        <v>-0.5126231924995207</v>
+        <v>-0.5085989882082328</v>
       </c>
       <c r="AJ3" s="26" t="n">
-        <v>0.1221009224659339</v>
+        <v>0.1230407753503938</v>
       </c>
       <c r="AK3" s="26" t="n">
-        <v>-0.09348096591396433</v>
+        <v>-0.1233425613487778</v>
       </c>
       <c r="AL3" s="0" t="n"/>
       <c r="AM3" s="26" t="n">
-        <v>95.68921725182582</v>
+        <v>95.68921725182612</v>
       </c>
       <c r="AN3" s="26" t="n">
-        <v>98.29067291462816</v>
+        <v>98.94588834327377</v>
       </c>
       <c r="AO3" s="44">
         <f>AN3*D3</f>
@@ -1364,8 +1368,10 @@
           <t>否</t>
         </is>
       </c>
-      <c r="R4" s="4" t="n">
-        <v>44741</v>
+      <c r="R4" s="4" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
       </c>
       <c r="S4" s="4" t="inlineStr">
         <is>
@@ -1383,14 +1389,14 @@
         <v>50</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X4" s="7">
         <f>U4/F4*100</f>
         <v/>
       </c>
       <c r="Y4" s="26" t="n">
-        <v>0.6531464762532884</v>
+        <v>0.5692638306123201</v>
       </c>
       <c r="Z4" s="26">
         <f>AN4</f>
@@ -1416,7 +1422,7 @@
         <v>-0.007099363599368972</v>
       </c>
       <c r="AF4" s="26" t="n">
-        <v>-0.01798743990588837</v>
+        <v>-0.004484508765013644</v>
       </c>
       <c r="AG4" s="43">
         <f>AF4*AB4</f>
@@ -1427,20 +1433,20 @@
         <v/>
       </c>
       <c r="AI4" s="26" t="n">
-        <v>-0.5207003456841175</v>
+        <v>-0.5179334894976649</v>
       </c>
       <c r="AJ4" s="26" t="n">
-        <v>0.1161022668777376</v>
+        <v>0.1171870812858815</v>
       </c>
       <c r="AK4" s="26" t="n">
-        <v>-0.1229343305259878</v>
+        <v>-0.0770490715175785</v>
       </c>
       <c r="AL4" s="0" t="n"/>
       <c r="AM4" s="26" t="n">
-        <v>95.68921725182582</v>
+        <v>95.68921725182612</v>
       </c>
       <c r="AN4" s="26" t="n">
-        <v>96.77940196220206</v>
+        <v>97.27612346852834</v>
       </c>
       <c r="AO4" s="44">
         <f>AN4*D4</f>
@@ -1468,7 +1474,7 @@
         </is>
       </c>
       <c r="AU4" s="17" t="n">
-        <v>130197.699052</v>
+        <v>167117.699052</v>
       </c>
     </row>
     <row r="5" ht="20.1" customHeight="1" s="37">
@@ -1628,7 +1634,7 @@
         </is>
       </c>
       <c r="AU5" s="17" t="n">
-        <v>13.2117</v>
+        <v>11.4117</v>
       </c>
       <c r="AV5" s="0" t="n"/>
     </row>
